--- a/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985813C3-82C2-0044-90A7-5F4AF1BDD410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B17F5-ED12-B74C-9736-FFCD61978F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="10020" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -836,9 +836,6 @@
     <t>dielectric_permittivity</t>
   </si>
   <si>
-    <t>Dielectric Permittivity Of The Medium</t>
-  </si>
-  <si>
     <t>The ability of a medium to hold an electric charge.</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>//diggs:Property/diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>Dielectric Permittivity</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2235,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>234</v>
@@ -2258,8 +2258,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2950,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2530,10 +2530,10 @@
         <v>265</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>1</v>
@@ -2549,13 +2549,13 @@
         <v/>
       </c>
       <c r="B13" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>1</v>
@@ -2571,13 +2571,13 @@
         <v/>
       </c>
       <c r="B14" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>1</v>
@@ -2593,13 +2593,13 @@
         <v/>
       </c>
       <c r="B15" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>1</v>
@@ -2615,13 +2615,13 @@
         <v/>
       </c>
       <c r="B16" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
@@ -2637,13 +2637,13 @@
         <v/>
       </c>
       <c r="B17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1</v>
@@ -2659,19 +2659,19 @@
         <v/>
       </c>
       <c r="B18" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -2681,13 +2681,13 @@
         <v/>
       </c>
       <c r="B19" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>1</v>
@@ -2703,13 +2703,13 @@
         <v/>
       </c>
       <c r="B20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>1</v>
@@ -2725,13 +2725,13 @@
         <v/>
       </c>
       <c r="B21" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>1</v>
@@ -2747,13 +2747,13 @@
         <v/>
       </c>
       <c r="B22" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>1</v>
@@ -2769,13 +2769,13 @@
         <v/>
       </c>
       <c r="B23" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>1</v>
@@ -2791,13 +2791,13 @@
         <v/>
       </c>
       <c r="B24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>1</v>
@@ -2813,13 +2813,13 @@
         <v/>
       </c>
       <c r="B25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>1</v>
@@ -2835,13 +2835,13 @@
         <v/>
       </c>
       <c r="B26" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>1</v>
@@ -2857,13 +2857,13 @@
         <v/>
       </c>
       <c r="B27" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>1</v>
@@ -2879,13 +2879,13 @@
         <v/>
       </c>
       <c r="B28" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>1</v>
@@ -2901,13 +2901,13 @@
         <v/>
       </c>
       <c r="B29" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>1</v>
@@ -2923,13 +2923,13 @@
         <v/>
       </c>
       <c r="B30" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>1</v>
@@ -2945,13 +2945,13 @@
         <v/>
       </c>
       <c r="B31" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>325</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>1</v>
@@ -2967,13 +2967,13 @@
         <v/>
       </c>
       <c r="B32" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>328</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>1</v>
@@ -2989,13 +2989,13 @@
         <v/>
       </c>
       <c r="B33" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>331</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>1</v>
@@ -3011,13 +3011,13 @@
         <v/>
       </c>
       <c r="B34" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>333</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>1</v>
@@ -3033,13 +3033,13 @@
         <v/>
       </c>
       <c r="B35" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>336</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>337</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>1</v>
@@ -3055,13 +3055,13 @@
         <v/>
       </c>
       <c r="B36" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>340</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>1</v>
@@ -3077,13 +3077,13 @@
         <v/>
       </c>
       <c r="B37" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>342</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>343</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>1</v>
@@ -3099,13 +3099,13 @@
         <v/>
       </c>
       <c r="B38" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="17" t="s">
         <v>345</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>346</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>1</v>
@@ -3121,13 +3121,13 @@
         <v/>
       </c>
       <c r="B39" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>1</v>
@@ -3143,13 +3143,13 @@
         <v/>
       </c>
       <c r="B40" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>352</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>1</v>
@@ -3165,13 +3165,13 @@
         <v/>
       </c>
       <c r="B41" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>1</v>
@@ -3187,13 +3187,13 @@
         <v/>
       </c>
       <c r="B42" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>1</v>
@@ -3209,13 +3209,13 @@
         <v/>
       </c>
       <c r="B43" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>1</v>
@@ -3231,13 +3231,13 @@
         <v/>
       </c>
       <c r="B44" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="D44" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>1</v>
@@ -3253,13 +3253,13 @@
         <v/>
       </c>
       <c r="B45" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>1</v>
@@ -3275,13 +3275,13 @@
         <v/>
       </c>
       <c r="B46" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v/>
       </c>
       <c r="B47" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>372</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>1</v>
@@ -3319,13 +3319,13 @@
         <v/>
       </c>
       <c r="B48" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>1</v>
@@ -3341,13 +3341,13 @@
         <v/>
       </c>
       <c r="B49" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>1</v>
@@ -3363,13 +3363,13 @@
         <v/>
       </c>
       <c r="B50" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>381</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>1</v>
@@ -3385,13 +3385,13 @@
         <v/>
       </c>
       <c r="B51" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="D51" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>385</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>1</v>
@@ -3407,13 +3407,13 @@
         <v/>
       </c>
       <c r="B52" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>387</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>388</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>1</v>
@@ -3429,13 +3429,13 @@
         <v/>
       </c>
       <c r="B53" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>1</v>
@@ -3451,13 +3451,13 @@
         <v/>
       </c>
       <c r="B54" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>1</v>
@@ -3473,13 +3473,13 @@
         <v/>
       </c>
       <c r="B55" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>1</v>
@@ -3495,13 +3495,13 @@
         <v/>
       </c>
       <c r="B56" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>1</v>
@@ -3517,13 +3517,13 @@
         <v/>
       </c>
       <c r="B57" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>1</v>
@@ -3539,13 +3539,13 @@
         <v/>
       </c>
       <c r="B58" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>1</v>
@@ -3561,13 +3561,13 @@
         <v/>
       </c>
       <c r="B59" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>409</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>1</v>
@@ -3583,13 +3583,13 @@
         <v/>
       </c>
       <c r="B60" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>1</v>
@@ -3605,13 +3605,13 @@
         <v/>
       </c>
       <c r="B61" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="D61" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>1</v>
@@ -3627,13 +3627,13 @@
         <v/>
       </c>
       <c r="B62" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="D62" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>1</v>
@@ -3649,13 +3649,13 @@
         <v/>
       </c>
       <c r="B63" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>1</v>
@@ -3671,13 +3671,13 @@
         <v/>
       </c>
       <c r="B64" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="D64" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>1</v>
@@ -3693,13 +3693,13 @@
         <v/>
       </c>
       <c r="B65" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="D65" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>427</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>1</v>
@@ -3715,13 +3715,13 @@
         <v/>
       </c>
       <c r="B66" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="D66" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>430</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>1</v>
@@ -3737,13 +3737,13 @@
         <v/>
       </c>
       <c r="B67" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>433</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>180</v>
@@ -3759,13 +3759,13 @@
         <v/>
       </c>
       <c r="B68" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>4</v>
@@ -3781,13 +3781,13 @@
         <v/>
       </c>
       <c r="B69" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>439</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>4</v>
@@ -3803,13 +3803,13 @@
         <v/>
       </c>
       <c r="B70" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>442</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>1</v>
@@ -3845,7 +3845,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C117"/>
     </sheetView>
@@ -3881,10 +3881,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,10 +3896,10 @@
         <v>236</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,10 +3911,10 @@
         <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,10 +3941,10 @@
         <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,10 +3956,10 @@
         <v>245</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,10 +3971,10 @@
         <v>245</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,10 +3986,10 @@
         <v>245</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,10 +4001,10 @@
         <v>245</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4016,10 +4016,10 @@
         <v>248</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,10 +4031,10 @@
         <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,10 +4046,10 @@
         <v>251</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,10 +4061,10 @@
         <v>251</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,10 +4076,10 @@
         <v>251</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4091,10 +4091,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4106,10 +4106,10 @@
         <v>256</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,10 +4121,10 @@
         <v>259</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4136,10 +4136,10 @@
         <v>259</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,10 +4151,10 @@
         <v>259</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>259</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,10 +4181,10 @@
         <v>262</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,10 +4196,10 @@
         <v>265</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,13 +4208,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,13 +4223,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,13 +4238,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,13 +4253,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,13 +4268,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,13 +4283,13 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4298,13 +4298,13 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,13 +4313,13 @@
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4328,13 +4328,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4343,13 +4343,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,13 +4358,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4373,13 +4373,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4388,13 +4388,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,13 +4403,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,13 +4433,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4448,13 +4448,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4463,13 +4463,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4478,13 +4478,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,13 +4493,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,13 +4508,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4523,13 +4523,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,13 +4538,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4553,13 +4553,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4568,13 +4568,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4583,13 +4583,13 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4598,13 +4598,13 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,13 +4613,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,13 +4628,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,13 +4643,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,13 +4658,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,13 +4673,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,13 +4688,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,13 +4703,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,13 +4718,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,13 +4733,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4748,13 +4748,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D60" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4763,13 +4763,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4778,13 +4778,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4793,13 +4793,13 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4808,13 +4808,13 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,13 +4823,13 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4838,13 +4838,13 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4853,13 +4853,13 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,13 +4868,13 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,13 +4883,13 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,13 +4898,13 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,13 +4913,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4928,13 +4928,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D72" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,13 +4943,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4958,13 +4958,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,13 +4973,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4988,13 +4988,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,13 +5003,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5018,13 +5018,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,13 +5033,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,13 +5048,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5063,13 +5063,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,13 +5078,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,13 +5093,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,13 +5108,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,13 +5123,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5138,13 +5138,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5153,13 +5153,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,13 +5168,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D88" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,13 +5183,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5198,13 +5198,13 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5213,13 +5213,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,13 +5228,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D92" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,13 +5243,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,13 +5258,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,13 +5273,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5288,13 +5288,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5303,13 +5303,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5318,13 +5318,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,13 +5333,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5348,13 +5348,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,13 +5363,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D101" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5378,13 +5378,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D102" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5393,13 +5393,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,13 +5408,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5423,13 +5423,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,13 +5438,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,13 +5453,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5468,13 +5468,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5483,13 +5483,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D109" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,13 +5498,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D110" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5513,13 +5513,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,13 +5528,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,13 +5543,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D113" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5558,13 +5558,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D114" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5573,13 +5573,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,13 +5588,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5603,13 +5603,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D117" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B17F5-ED12-B74C-9736-FFCD61978F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7658F-33B7-914E-985D-EDE9409C1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="39940" windowHeight="25180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="464">
   <si>
     <t>Description</t>
   </si>
@@ -1425,6 +1425,9 @@
   </si>
   <si>
     <t>Dielectric Permittivity</t>
+  </si>
+  <si>
+    <t>//diggs:WirelineLog</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1639,6 +1642,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1892,10 +1900,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D117" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D117" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
-    <sortCondition ref="C1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D136" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D136" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
+    <sortCondition ref="D1:D117"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
@@ -2258,7 +2266,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3843,11 +3851,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C117"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3878,13 +3886,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3893,13 +3901,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,13 +3916,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3923,13 +3931,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3938,13 +3946,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,13 +3961,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3968,13 +3976,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3983,13 +3991,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,7 +4006,7 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>461</v>
@@ -4013,7 +4021,7 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>461</v>
@@ -4028,13 +4036,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4043,13 +4051,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4058,13 +4066,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>385</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,7 +4081,7 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>461</v>
@@ -4088,13 +4096,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4103,7 +4111,7 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>461</v>
@@ -4118,13 +4126,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4133,13 +4141,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4148,13 +4156,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>424</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4163,13 +4171,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>427</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4178,13 +4186,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4193,13 +4201,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,13 +4216,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D24" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,13 +4231,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>439</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,13 +4246,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,13 +4261,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,13 +4276,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,13 +4291,13 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4298,13 +4306,13 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,13 +4321,13 @@
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D31" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4328,13 +4336,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4343,13 +4351,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D33" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,13 +4366,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D34" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4373,7 +4381,7 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>461</v>
@@ -4388,7 +4396,7 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>461</v>
@@ -4403,7 +4411,7 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>461</v>
@@ -4418,13 +4426,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D38" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,13 +4441,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D39" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4448,13 +4456,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4463,13 +4471,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4478,13 +4486,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D42" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,13 +4501,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D43" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,13 +4516,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4523,13 +4531,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,13 +4546,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D46" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4553,7 +4561,7 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>461</v>
@@ -4568,13 +4576,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4583,7 +4591,7 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>461</v>
@@ -4604,7 +4612,7 @@
         <v>461</v>
       </c>
       <c r="D50" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,13 +4636,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D52" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,13 +4651,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,13 +4666,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,13 +4681,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,13 +4696,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,13 +4711,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D57" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,13 +4726,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D58" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,13 +4741,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D59" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4748,13 +4756,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D60" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4763,13 +4771,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4778,13 +4786,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4793,13 +4801,13 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4808,13 +4816,13 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,13 +4831,13 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D65" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4838,13 +4846,13 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D66" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4853,13 +4861,13 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,13 +4876,13 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D68" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,13 +4891,13 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,7 +4906,7 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>461</v>
@@ -4913,13 +4921,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D71" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4934,7 +4942,7 @@
         <v>461</v>
       </c>
       <c r="D72" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,13 +4951,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4958,13 +4966,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D74" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,13 +4981,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D75" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4988,13 +4996,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,13 +5011,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D77" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5018,13 +5026,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D78" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,13 +5041,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D79" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,13 +5056,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D80" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5063,7 +5071,7 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>461</v>
@@ -5078,13 +5086,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,13 +5101,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D83" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,13 +5116,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>376</v>
+        <v>236</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D84" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,13 +5131,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D85" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5138,13 +5146,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5153,13 +5161,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D87" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,13 +5176,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D88" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,13 +5191,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5198,13 +5206,13 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D90" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5213,13 +5221,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D91" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,13 +5236,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,13 +5251,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D93" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,13 +5266,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D94" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,13 +5281,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5288,13 +5296,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>388</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D96" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5303,13 +5311,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D97" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5318,13 +5326,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D98" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,7 +5341,7 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>461</v>
@@ -5348,13 +5356,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D100" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,13 +5371,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5378,13 +5386,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5393,13 +5401,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,13 +5416,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5423,13 +5431,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,13 +5446,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,13 +5461,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5468,13 +5476,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D108" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5483,13 +5491,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,13 +5506,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5513,13 +5521,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>259</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,13 +5536,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>267</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,13 +5551,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D113" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5558,13 +5566,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>430</v>
+        <v>273</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D114" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5573,13 +5581,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,13 +5596,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D116" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5603,13 +5611,298 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>461</v>
       </c>
       <c r="D117" t="s">
-        <v>460</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D127" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D136" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7658F-33B7-914E-985D-EDE9409C1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0EBBE-BD66-A245-BBFA-C11E0B37DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="39940" windowHeight="25180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,70 +1364,70 @@
     <t>The  two-way time required for a sesimic wave to travel from the source to the borehole wall</t>
   </si>
   <si>
-    <t xml:space="preserve"> //diggs_geo:WirelineLog</t>
-  </si>
-  <si>
     <t>gp_properties</t>
   </si>
   <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic reflection"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic refraction"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="gravity"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - active"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - passive"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="induced polarization (IP)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="frequency domain EM (FDEM)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="ground penetrating radar (GPR)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="VLF EM"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magneotellurics (MT)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="electrical resistivity (ERI/ERT)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="self-potential (SP)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="nuclear magnetic resonance (NMR)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magnetometry"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="radiometric"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="time-domain EM (TEM)"]</t>
-  </si>
-  <si>
-    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="borehole image log"]</t>
-  </si>
-  <si>
     <t>//diggs:Property/diggs:propertyClass</t>
   </si>
   <si>
     <t>Dielectric Permittivity</t>
   </si>
   <si>
-    <t>//diggs:WirelineLog</t>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs_geo:WirelineLog</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:WirelineLog</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="borehole image log"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="electrical resistivity (ERI/ERT)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="frequency domain EM (FDEM)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="gravity"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="ground penetrating radar (GPR)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="induced polarization (IP)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magneotellurics (MT)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magnetometry"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - active"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - passive"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="nuclear magnetic resonance (NMR)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="radiometric"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic reflection"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic refraction"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="self-potential (SP)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="time-domain EM (TEM)"]</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="VLF EM"]</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1642,11 +1642,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1902,8 +1897,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D136" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D136" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
-    <sortCondition ref="D1:D117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D136">
+    <sortCondition ref="D1:D136"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
@@ -2243,7 +2238,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>234</v>
@@ -2538,7 +2533,7 @@
         <v>265</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>266</v>
@@ -3854,8 +3849,8 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3889,10 +3884,10 @@
         <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3904,10 +3899,10 @@
         <v>248</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,10 +3914,10 @@
         <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3934,10 +3929,10 @@
         <v>256</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,10 +3944,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,10 +3959,10 @@
         <v>279</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3979,10 +3974,10 @@
         <v>282</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3994,10 +3989,10 @@
         <v>322</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,10 +4004,10 @@
         <v>340</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4024,10 +4019,10 @@
         <v>343</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,10 +4034,10 @@
         <v>376</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,10 +4049,10 @@
         <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,10 +4064,10 @@
         <v>385</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,10 +4079,10 @@
         <v>388</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,10 +4094,10 @@
         <v>391</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4114,10 +4109,10 @@
         <v>394</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,10 +4124,10 @@
         <v>409</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4144,10 +4139,10 @@
         <v>412</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4159,10 +4154,10 @@
         <v>424</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,10 +4169,10 @@
         <v>427</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4189,10 +4184,10 @@
         <v>430</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4204,10 +4199,10 @@
         <v>433</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4219,10 +4214,10 @@
         <v>436</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4234,10 +4229,10 @@
         <v>439</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,10 +4244,10 @@
         <v>349</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,10 +4259,10 @@
         <v>379</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,10 +4274,10 @@
         <v>382</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,10 +4289,10 @@
         <v>259</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,10 +4304,10 @@
         <v>295</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4324,10 +4319,10 @@
         <v>298</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,10 +4334,10 @@
         <v>364</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4354,10 +4349,10 @@
         <v>367</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4369,10 +4364,10 @@
         <v>379</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,10 +4379,10 @@
         <v>239</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4399,10 +4394,10 @@
         <v>242</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4414,10 +4409,10 @@
         <v>251</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D37" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4429,10 +4424,10 @@
         <v>286</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D38" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4444,10 +4439,10 @@
         <v>289</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,10 +4454,10 @@
         <v>292</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D40" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,7 +4469,7 @@
         <v>259</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D41" t="s">
         <v>451</v>
@@ -4489,7 +4484,7 @@
         <v>262</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D42" t="s">
         <v>451</v>
@@ -4504,7 +4499,7 @@
         <v>265</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D43" t="s">
         <v>451</v>
@@ -4519,7 +4514,7 @@
         <v>276</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
         <v>451</v>
@@ -4534,10 +4529,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,10 +4544,10 @@
         <v>382</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4564,7 +4559,7 @@
         <v>267</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D47" t="s">
         <v>453</v>
@@ -4579,7 +4574,7 @@
         <v>270</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D48" t="s">
         <v>453</v>
@@ -4594,7 +4589,7 @@
         <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D49" t="s">
         <v>453</v>
@@ -4609,7 +4604,7 @@
         <v>316</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D50" t="s">
         <v>453</v>
@@ -4624,7 +4619,7 @@
         <v>319</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
         <v>453</v>
@@ -4639,7 +4634,7 @@
         <v>379</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D52" t="s">
         <v>453</v>
@@ -4654,7 +4649,7 @@
         <v>382</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D53" t="s">
         <v>453</v>
@@ -4669,7 +4664,7 @@
         <v>415</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D54" t="s">
         <v>453</v>
@@ -4684,7 +4679,7 @@
         <v>418</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D55" t="s">
         <v>453</v>
@@ -4699,7 +4694,7 @@
         <v>421</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D56" t="s">
         <v>453</v>
@@ -4714,10 +4709,10 @@
         <v>307</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D57" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,10 +4724,10 @@
         <v>310</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D58" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,10 +4739,10 @@
         <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D59" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,10 +4754,10 @@
         <v>316</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,10 +4769,10 @@
         <v>319</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4789,10 +4784,10 @@
         <v>322</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D62" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4804,10 +4799,10 @@
         <v>245</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4819,10 +4814,10 @@
         <v>325</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4834,10 +4829,10 @@
         <v>328</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D65" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4849,10 +4844,10 @@
         <v>340</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D66" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,10 +4859,10 @@
         <v>343</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D67" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,10 +4874,10 @@
         <v>388</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D68" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,10 +4889,10 @@
         <v>245</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D69" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,10 +4904,10 @@
         <v>325</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D70" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4924,10 +4919,10 @@
         <v>328</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D71" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4939,10 +4934,10 @@
         <v>340</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D72" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,10 +4949,10 @@
         <v>343</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D73" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,10 +4964,10 @@
         <v>388</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D74" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4984,10 +4979,10 @@
         <v>301</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4999,10 +4994,10 @@
         <v>304</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5014,10 +5009,10 @@
         <v>397</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5029,10 +5024,10 @@
         <v>400</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5044,10 +5039,10 @@
         <v>403</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5059,10 +5054,10 @@
         <v>406</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5074,7 +5069,7 @@
         <v>334</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D81" t="s">
         <v>458</v>
@@ -5089,7 +5084,7 @@
         <v>337</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D82" t="s">
         <v>458</v>
@@ -5104,7 +5099,7 @@
         <v>370</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D83" t="s">
         <v>458</v>
@@ -5119,10 +5114,10 @@
         <v>236</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D84" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5134,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D85" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5149,10 +5144,10 @@
         <v>251</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D86" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,10 +5159,10 @@
         <v>325</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,10 +5174,10 @@
         <v>328</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D88" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5194,10 +5189,10 @@
         <v>331</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D89" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,10 +5204,10 @@
         <v>340</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D90" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5224,10 +5219,10 @@
         <v>343</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D91" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5239,10 +5234,10 @@
         <v>373</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D92" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5254,10 +5249,10 @@
         <v>388</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D93" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5269,10 +5264,10 @@
         <v>236</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D94" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5284,10 +5279,10 @@
         <v>245</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D95" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,10 +5294,10 @@
         <v>251</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D96" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5314,10 +5309,10 @@
         <v>325</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D97" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5329,10 +5324,10 @@
         <v>328</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D98" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,10 +5339,10 @@
         <v>331</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5359,10 +5354,10 @@
         <v>340</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D100" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5374,10 +5369,10 @@
         <v>343</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D101" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,10 +5384,10 @@
         <v>388</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D102" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5404,10 +5399,10 @@
         <v>349</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D103" t="s">
         <v>461</v>
-      </c>
-      <c r="D103" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,10 +5414,10 @@
         <v>346</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D104" t="s">
         <v>461</v>
-      </c>
-      <c r="D104" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5434,10 +5429,10 @@
         <v>352</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" t="s">
         <v>461</v>
-      </c>
-      <c r="D105" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5449,10 +5444,10 @@
         <v>355</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D106" t="s">
         <v>461</v>
-      </c>
-      <c r="D106" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5464,10 +5459,10 @@
         <v>358</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D107" t="s">
         <v>461</v>
-      </c>
-      <c r="D107" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5479,10 +5474,10 @@
         <v>361</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" t="s">
         <v>461</v>
-      </c>
-      <c r="D108" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5494,10 +5489,10 @@
         <v>379</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,10 +5504,10 @@
         <v>382</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5524,10 +5519,10 @@
         <v>259</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5539,10 +5534,10 @@
         <v>267</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5554,10 +5549,10 @@
         <v>270</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5569,10 +5564,10 @@
         <v>273</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5584,10 +5579,10 @@
         <v>295</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,10 +5594,10 @@
         <v>298</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D116" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5614,295 +5609,295 @@
         <v>382</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="str">
+      <c r="A118" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="22" t="s">
-        <v>461</v>
+      <c r="C118" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D118" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="str">
+      <c r="A119" t="str">
         <f>IF(ISNA(VLOOKUP(B119,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="22" t="s">
-        <v>461</v>
+      <c r="C119" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D119" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="str">
+      <c r="A120" t="str">
         <f>IF(ISNA(VLOOKUP(B120,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C120" s="22" t="s">
-        <v>461</v>
+      <c r="C120" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D120" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="str">
+      <c r="A121" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="22" t="s">
-        <v>461</v>
+      <c r="C121" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D121" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="str">
+      <c r="A122" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="22" t="s">
-        <v>461</v>
+      <c r="C122" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D122" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="str">
+      <c r="A123" t="str">
         <f>IF(ISNA(VLOOKUP(B123,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C123" s="22" t="s">
-        <v>461</v>
+      <c r="C123" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D123" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="str">
+      <c r="A124" t="str">
         <f>IF(ISNA(VLOOKUP(B124,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C124" s="22" t="s">
-        <v>461</v>
+      <c r="C124" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D124" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="str">
+      <c r="A125" t="str">
         <f>IF(ISNA(VLOOKUP(B125,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C125" s="22" t="s">
-        <v>461</v>
+      <c r="C125" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D125" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="20" t="str">
+      <c r="A126" t="str">
         <f>IF(ISNA(VLOOKUP(B126,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C126" s="22" t="s">
-        <v>461</v>
+      <c r="C126" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D126" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="str">
+      <c r="A127" t="str">
         <f>IF(ISNA(VLOOKUP(B127,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C127" s="22" t="s">
-        <v>461</v>
+      <c r="C127" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D127" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="str">
+      <c r="A128" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C128" s="22" t="s">
-        <v>461</v>
+      <c r="C128" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D128" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="20" t="str">
+      <c r="A129" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C129" s="22" t="s">
-        <v>461</v>
+      <c r="C129" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D129" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="20" t="str">
+      <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>461</v>
+      <c r="C130" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D130" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="20" t="str">
+      <c r="A131" t="str">
         <f>IF(ISNA(VLOOKUP(B131,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="22" t="s">
-        <v>461</v>
+      <c r="C131" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D131" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="20" t="str">
+      <c r="A132" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="22" t="s">
-        <v>461</v>
+      <c r="C132" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D132" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="20" t="str">
+      <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="22" t="s">
-        <v>461</v>
+      <c r="C133" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D133" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="20" t="str">
+      <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C134" s="22" t="s">
-        <v>461</v>
+      <c r="C134" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D134" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="20" t="str">
+      <c r="A135" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C135" s="22" t="s">
-        <v>461</v>
+      <c r="C135" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D135" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="20" t="str">
+      <c r="A136" t="str">
         <f>IF(ISNA(VLOOKUP(B136,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C136" s="22" t="s">
-        <v>461</v>
+      <c r="C136" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D136" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0EBBE-BD66-A245-BBFA-C11E0B37DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03445C36-9447-FC4B-BE1D-4EF0F660D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="39940" windowHeight="25180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="39940" windowHeight="25180" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="465">
   <si>
     <t>Description</t>
   </si>
@@ -704,9 +704,6 @@
     <t>density or unit weight</t>
   </si>
   <si>
-    <t>reciprocal time squared</t>
-  </si>
-  <si>
     <t>Leave this line blank</t>
   </si>
   <si>
@@ -1428,6 +1425,12 @@
   </si>
   <si>
     <t>ancestor::diggs:measurement//diggs:procedure/diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="VLF EM"]</t>
+  </si>
+  <si>
+    <t>gravitational gradient</t>
+  </si>
+  <si>
+    <t>relative rate</t>
   </si>
 </sst>
 </file>
@@ -1913,10 +1916,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
-  <autoFilter ref="A1:C187" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C187">
-    <sortCondition ref="C1:C187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C188" totalsRowShown="0">
+  <autoFilter ref="A1:C188" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C186">
+    <sortCondition ref="C1:C186"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DataType"/>
@@ -2215,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>14</v>
@@ -2230,21 +2233,21 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2261,8 +2264,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2283,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -2295,13 +2298,13 @@
         <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2310,13 +2313,13 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -2332,13 +2335,13 @@
         <v/>
       </c>
       <c r="B3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>241</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>1</v>
@@ -2354,13 +2357,13 @@
         <v/>
       </c>
       <c r="B4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>1</v>
@@ -2376,13 +2379,13 @@
         <v/>
       </c>
       <c r="B5" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>1</v>
@@ -2398,13 +2401,13 @@
         <v/>
       </c>
       <c r="B6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>250</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>1</v>
@@ -2420,13 +2423,13 @@
         <v/>
       </c>
       <c r="B7" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>1</v>
@@ -2445,10 +2448,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>1</v>
@@ -2464,13 +2467,13 @@
         <v/>
       </c>
       <c r="B9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>1</v>
@@ -2486,13 +2489,13 @@
         <v/>
       </c>
       <c r="B10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>1</v>
@@ -2508,13 +2511,13 @@
         <v/>
       </c>
       <c r="B11" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>1</v>
@@ -2530,13 +2533,13 @@
         <v/>
       </c>
       <c r="B12" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>1</v>
@@ -2552,13 +2555,13 @@
         <v/>
       </c>
       <c r="B13" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>1</v>
@@ -2574,13 +2577,13 @@
         <v/>
       </c>
       <c r="B14" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>1</v>
@@ -2596,13 +2599,13 @@
         <v/>
       </c>
       <c r="B15" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>1</v>
@@ -2618,13 +2621,13 @@
         <v/>
       </c>
       <c r="B16" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
@@ -2640,13 +2643,13 @@
         <v/>
       </c>
       <c r="B17" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1</v>
@@ -2662,19 +2665,19 @@
         <v/>
       </c>
       <c r="B18" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -2684,13 +2687,13 @@
         <v/>
       </c>
       <c r="B19" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>1</v>
@@ -2706,19 +2709,19 @@
         <v/>
       </c>
       <c r="B20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -2728,13 +2731,13 @@
         <v/>
       </c>
       <c r="B21" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>1</v>
@@ -2750,13 +2753,13 @@
         <v/>
       </c>
       <c r="B22" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>297</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>1</v>
@@ -2772,13 +2775,13 @@
         <v/>
       </c>
       <c r="B23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>300</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>1</v>
@@ -2794,13 +2797,13 @@
         <v/>
       </c>
       <c r="B24" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>1</v>
@@ -2816,13 +2819,13 @@
         <v/>
       </c>
       <c r="B25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>1</v>
@@ -2838,13 +2841,13 @@
         <v/>
       </c>
       <c r="B26" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>1</v>
@@ -2860,13 +2863,13 @@
         <v/>
       </c>
       <c r="B27" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>1</v>
@@ -2882,13 +2885,13 @@
         <v/>
       </c>
       <c r="B28" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>1</v>
@@ -2904,13 +2907,13 @@
         <v/>
       </c>
       <c r="B29" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>318</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>1</v>
@@ -2926,13 +2929,13 @@
         <v/>
       </c>
       <c r="B30" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>320</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>321</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>1</v>
@@ -2948,13 +2951,13 @@
         <v/>
       </c>
       <c r="B31" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>1</v>
@@ -2970,13 +2973,13 @@
         <v/>
       </c>
       <c r="B32" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>1</v>
@@ -2992,13 +2995,13 @@
         <v/>
       </c>
       <c r="B33" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>1</v>
@@ -3014,13 +3017,13 @@
         <v/>
       </c>
       <c r="B34" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>333</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>1</v>
@@ -3036,13 +3039,13 @@
         <v/>
       </c>
       <c r="B35" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>1</v>
@@ -3058,13 +3061,13 @@
         <v/>
       </c>
       <c r="B36" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>339</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>1</v>
@@ -3080,13 +3083,13 @@
         <v/>
       </c>
       <c r="B37" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>1</v>
@@ -3102,13 +3105,13 @@
         <v/>
       </c>
       <c r="B38" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>345</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>1</v>
@@ -3124,13 +3127,13 @@
         <v/>
       </c>
       <c r="B39" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>348</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>1</v>
@@ -3146,13 +3149,13 @@
         <v/>
       </c>
       <c r="B40" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>351</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>1</v>
@@ -3168,13 +3171,13 @@
         <v/>
       </c>
       <c r="B41" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>354</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>1</v>
@@ -3190,13 +3193,13 @@
         <v/>
       </c>
       <c r="B42" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>1</v>
@@ -3212,13 +3215,13 @@
         <v/>
       </c>
       <c r="B43" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="17" t="s">
         <v>359</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>360</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>1</v>
@@ -3234,13 +3237,13 @@
         <v/>
       </c>
       <c r="B44" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="D44" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>1</v>
@@ -3256,13 +3259,13 @@
         <v/>
       </c>
       <c r="B45" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>1</v>
@@ -3278,13 +3281,13 @@
         <v/>
       </c>
       <c r="B46" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>369</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>1</v>
@@ -3300,13 +3303,13 @@
         <v/>
       </c>
       <c r="B47" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>1</v>
@@ -3322,13 +3325,13 @@
         <v/>
       </c>
       <c r="B48" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>375</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>1</v>
@@ -3344,13 +3347,13 @@
         <v/>
       </c>
       <c r="B49" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>1</v>
@@ -3366,13 +3369,13 @@
         <v/>
       </c>
       <c r="B50" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>381</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>1</v>
@@ -3388,13 +3391,13 @@
         <v/>
       </c>
       <c r="B51" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="D51" s="17" t="s">
         <v>383</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>384</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>1</v>
@@ -3410,13 +3413,13 @@
         <v/>
       </c>
       <c r="B52" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>387</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>1</v>
@@ -3432,13 +3435,13 @@
         <v/>
       </c>
       <c r="B53" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>390</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>1</v>
@@ -3454,13 +3457,13 @@
         <v/>
       </c>
       <c r="B54" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>393</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>1</v>
@@ -3476,13 +3479,13 @@
         <v/>
       </c>
       <c r="B55" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>396</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>1</v>
@@ -3498,13 +3501,13 @@
         <v/>
       </c>
       <c r="B56" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>1</v>
@@ -3520,13 +3523,13 @@
         <v/>
       </c>
       <c r="B57" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>1</v>
@@ -3542,13 +3545,13 @@
         <v/>
       </c>
       <c r="B58" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>1</v>
@@ -3564,13 +3567,13 @@
         <v/>
       </c>
       <c r="B59" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>1</v>
@@ -3586,13 +3589,13 @@
         <v/>
       </c>
       <c r="B60" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>1</v>
@@ -3608,13 +3611,13 @@
         <v/>
       </c>
       <c r="B61" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="D61" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>1</v>
@@ -3630,13 +3633,13 @@
         <v/>
       </c>
       <c r="B62" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="D62" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>1</v>
@@ -3652,13 +3655,13 @@
         <v/>
       </c>
       <c r="B63" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>1</v>
@@ -3674,13 +3677,13 @@
         <v/>
       </c>
       <c r="B64" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="D64" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>1</v>
@@ -3696,13 +3699,13 @@
         <v/>
       </c>
       <c r="B65" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="D65" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>1</v>
@@ -3718,13 +3721,13 @@
         <v/>
       </c>
       <c r="B66" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="D66" s="17" t="s">
         <v>428</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>429</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>1</v>
@@ -3740,13 +3743,13 @@
         <v/>
       </c>
       <c r="B67" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>180</v>
@@ -3762,13 +3765,13 @@
         <v/>
       </c>
       <c r="B68" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>434</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>435</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>4</v>
@@ -3784,13 +3787,13 @@
         <v/>
       </c>
       <c r="B69" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>4</v>
@@ -3806,13 +3809,13 @@
         <v/>
       </c>
       <c r="B70" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>440</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>441</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>1</v>
@@ -3831,11 +3834,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B7FD0CC-5EF0-B345-B974-77575C95892D}">
           <x14:formula1>
-            <xm:f>Lists!$C$2:$C$178</xm:f>
+            <xm:f>Lists!$C$2:$C$298</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F70</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3848,7 +3851,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
@@ -3866,13 +3869,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3881,13 +3884,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,13 +3899,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,13 +3914,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3926,13 +3929,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,13 +3944,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,13 +3959,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,13 +3974,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,13 +3989,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,13 +4004,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4016,13 +4019,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,13 +4034,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,13 +4049,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,13 +4064,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,13 +4079,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4091,13 +4094,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4106,13 +4109,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,13 +4124,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4136,13 +4139,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,13 +4154,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,13 +4169,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,13 +4184,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,13 +4199,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4211,13 +4214,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4226,13 +4229,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,13 +4244,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4256,13 +4259,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4271,13 +4274,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,13 +4289,13 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4301,13 +4304,13 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4316,13 +4319,13 @@
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4331,13 +4334,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4346,13 +4349,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,13 +4364,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,13 +4379,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,13 +4394,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4406,13 +4409,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4421,13 +4424,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4436,13 +4439,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,13 +4454,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,13 +4469,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4481,13 +4484,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4496,13 +4499,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4511,13 +4514,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,10 +4532,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4541,13 +4544,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4556,13 +4559,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,13 +4574,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,13 +4589,13 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,13 +4604,13 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4616,13 +4619,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,13 +4634,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,13 +4649,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,13 +4664,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,13 +4679,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4691,13 +4694,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,13 +4709,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4721,13 +4724,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4736,13 +4739,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4751,13 +4754,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4766,13 +4769,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,13 +4784,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4796,13 +4799,13 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4811,13 +4814,13 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,13 +4829,13 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,13 +4844,13 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4856,13 +4859,13 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,13 +4874,13 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4886,13 +4889,13 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4901,13 +4904,13 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D70" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4916,13 +4919,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,13 +4934,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4946,13 +4949,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D73" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4961,13 +4964,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4976,13 +4979,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D75" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4991,13 +4994,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,13 +5009,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5021,13 +5024,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D78" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5036,13 +5039,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D79" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5051,13 +5054,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5066,13 +5069,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5081,13 +5084,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,13 +5099,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,13 +5114,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,13 +5129,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,13 +5144,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5156,13 +5159,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5171,13 +5174,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5186,13 +5189,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5201,13 +5204,13 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5216,13 +5219,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5231,13 +5234,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,13 +5249,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5261,13 +5264,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5276,13 +5279,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D95" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,13 +5294,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D96" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5306,13 +5309,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D97" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5321,13 +5324,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D98" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5336,13 +5339,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D99" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5351,13 +5354,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D100" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,13 +5369,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D101" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5381,13 +5384,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,13 +5399,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5411,13 +5414,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5426,13 +5429,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5441,13 +5444,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5456,13 +5459,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D107" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5471,13 +5474,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5486,13 +5489,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,13 +5504,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5516,13 +5519,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5531,13 +5534,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D112" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5546,13 +5549,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D113" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5561,13 +5564,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D114" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,13 +5579,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5591,13 +5594,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5606,13 +5609,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D117" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5621,13 +5624,13 @@
         <v/>
       </c>
       <c r="B118" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5636,13 +5639,13 @@
         <v/>
       </c>
       <c r="B119" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5651,13 +5654,13 @@
         <v/>
       </c>
       <c r="B120" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5666,13 +5669,13 @@
         <v/>
       </c>
       <c r="B121" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5681,13 +5684,13 @@
         <v/>
       </c>
       <c r="B122" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5696,13 +5699,13 @@
         <v/>
       </c>
       <c r="B123" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D123" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5711,13 +5714,13 @@
         <v/>
       </c>
       <c r="B124" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5726,13 +5729,13 @@
         <v/>
       </c>
       <c r="B125" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5741,13 +5744,13 @@
         <v/>
       </c>
       <c r="B126" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5756,13 +5759,13 @@
         <v/>
       </c>
       <c r="B127" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D127" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5771,13 +5774,13 @@
         <v/>
       </c>
       <c r="B128" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5786,13 +5789,13 @@
         <v/>
       </c>
       <c r="B129" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D129" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5801,13 +5804,13 @@
         <v/>
       </c>
       <c r="B130" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5816,13 +5819,13 @@
         <v/>
       </c>
       <c r="B131" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5831,13 +5834,13 @@
         <v/>
       </c>
       <c r="B132" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D132" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5846,13 +5849,13 @@
         <v/>
       </c>
       <c r="B133" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5861,13 +5864,13 @@
         <v/>
       </c>
       <c r="B134" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D134" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5876,13 +5879,13 @@
         <v/>
       </c>
       <c r="B135" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5891,13 +5894,13 @@
         <v/>
       </c>
       <c r="B136" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5915,10 +5918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5932,10 +5935,10 @@
         <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6100,7 +6103,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
@@ -6241,7 +6244,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -6424,739 +6427,743 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>72</v>
+        <v>463</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="D185" s="8"/>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D186" s="8"/>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
         <v>164</v>
       </c>
-      <c r="D187" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
-    <sortCondition ref="F2:F176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F175">
+    <sortCondition ref="F2:F175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/gp_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03445C36-9447-FC4B-BE1D-4EF0F660D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1471A-D69E-0143-8FEA-158E7F3B1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="39940" windowHeight="25180" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44820" windowHeight="27340" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="475">
   <si>
     <t>Description</t>
   </si>
@@ -632,78 +632,18 @@
     <t>pressure per pressure</t>
   </si>
   <si>
-    <t>activity of radioactivity</t>
-  </si>
-  <si>
-    <t>amount of substance per time per area</t>
-  </si>
-  <si>
     <t>area per count</t>
   </si>
   <si>
-    <t>cation exchange capacity</t>
-  </si>
-  <si>
     <t>diffusive time of flight</t>
   </si>
   <si>
-    <t>energy per mass per time</t>
-  </si>
-  <si>
-    <t>mass per time per area</t>
-  </si>
-  <si>
-    <t>mass per time per length</t>
-  </si>
-  <si>
-    <t>mass per volume per length</t>
-  </si>
-  <si>
-    <t>mass per volume per pressure</t>
-  </si>
-  <si>
-    <t>mass per volume per temperature</t>
-  </si>
-  <si>
-    <t>pressure squared per force time per area</t>
-  </si>
-  <si>
-    <t>reciprocal mass time</t>
-  </si>
-  <si>
     <t>thermodynamic temperature per thermodynamic temperature</t>
   </si>
   <si>
-    <t>vertical coordinate</t>
-  </si>
-  <si>
-    <t>volume per time length</t>
-  </si>
-  <si>
-    <t>volume per time per area</t>
-  </si>
-  <si>
-    <t>volume per time per length</t>
-  </si>
-  <si>
-    <t>volume per time per pressure</t>
-  </si>
-  <si>
-    <t>volume per time per pressure length</t>
-  </si>
-  <si>
-    <t>volume per time per time</t>
-  </si>
-  <si>
-    <t>volume per time per volume</t>
-  </si>
-  <si>
     <t>unitless</t>
   </si>
   <si>
-    <t>density or unit weight</t>
-  </si>
-  <si>
     <t>Leave this line blank</t>
   </si>
   <si>
@@ -1431,6 +1371,96 @@
   </si>
   <si>
     <t>relative rate</t>
+  </si>
+  <si>
+    <t>force or mass per volume</t>
+  </si>
+  <si>
+    <t>amount of substance per mass</t>
+  </si>
+  <si>
+    <t>use for cation exchange capacity</t>
+  </si>
+  <si>
+    <t>use for strain rate</t>
+  </si>
+  <si>
+    <t>use for geotechnical densities</t>
+  </si>
+  <si>
+    <t>reciprocal (mass time)</t>
+  </si>
+  <si>
+    <t>activity [of radioactivity]</t>
+  </si>
+  <si>
+    <t>(volume per time) per volume</t>
+  </si>
+  <si>
+    <t>(volume per time) per area</t>
+  </si>
+  <si>
+    <t>(volume per time) per length</t>
+  </si>
+  <si>
+    <t>(energy per mass) per time</t>
+  </si>
+  <si>
+    <t>(volume per time) per time</t>
+  </si>
+  <si>
+    <t>(volume per time) per (pressure length)</t>
+  </si>
+  <si>
+    <t>(volume per time) length</t>
+  </si>
+  <si>
+    <t>(volume per time) per pressure</t>
+  </si>
+  <si>
+    <t>(mass per time) per area</t>
+  </si>
+  <si>
+    <t>(mass per volume) per length</t>
+  </si>
+  <si>
+    <t>(mass per time) per length</t>
+  </si>
+  <si>
+    <t>pressure squared per (force time per area)</t>
+  </si>
+  <si>
+    <t>(amount of substance per time) per area</t>
+  </si>
+  <si>
+    <t>API gravity</t>
+  </si>
+  <si>
+    <t>API neutron</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>reciprocal time(0.5)</t>
+  </si>
+  <si>
+    <t>In EML schema but not in EML dictionary</t>
+  </si>
+  <si>
+    <t>use for gravity gradients</t>
+  </si>
+  <si>
+    <t>(mass per volume) per pressure</t>
+  </si>
+  <si>
+    <t>(mass per volume) per temperature</t>
+  </si>
+  <si>
+    <t>used for pressure filtration</t>
+  </si>
+  <si>
+    <t>volume or mass loss</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,8 +1574,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1586,6 +1628,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1600,7 +1670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1645,6 +1715,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1659,7 +1733,10 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1865,50 +1942,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H70" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H70" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:H70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2940,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D136" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D136" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D136" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D136">
     <sortCondition ref="D1:D136"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1916,15 +1993,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C188" totalsRowShown="0">
-  <autoFilter ref="A1:C188" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C186">
-    <sortCondition ref="C1:C186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:D188" totalsRowShown="0">
+  <autoFilter ref="A1:D188" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C183">
+    <sortCondition ref="C1:C183"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DataType"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DataType2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="QuantityClass"/>
+    <tableColumn id="4" xr3:uid="{5005B6AD-68FF-A648-AD97-C4ADB18EA7E3}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2218,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>14</v>
@@ -2233,21 +2313,21 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2345,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2286,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -2298,13 +2378,13 @@
         <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2313,13 +2393,13 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -2335,13 +2415,13 @@
         <v/>
       </c>
       <c r="B3" s="16" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>1</v>
@@ -2357,13 +2437,13 @@
         <v/>
       </c>
       <c r="B4" s="16" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>1</v>
@@ -2379,13 +2459,13 @@
         <v/>
       </c>
       <c r="B5" s="16" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>1</v>
@@ -2401,13 +2481,13 @@
         <v/>
       </c>
       <c r="B6" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>1</v>
@@ -2423,13 +2503,13 @@
         <v/>
       </c>
       <c r="B7" s="16" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>1</v>
@@ -2448,10 +2528,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>1</v>
@@ -2467,13 +2547,13 @@
         <v/>
       </c>
       <c r="B9" s="16" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>1</v>
@@ -2489,13 +2569,13 @@
         <v/>
       </c>
       <c r="B10" s="16" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>1</v>
@@ -2511,13 +2591,13 @@
         <v/>
       </c>
       <c r="B11" s="16" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>1</v>
@@ -2533,13 +2613,13 @@
         <v/>
       </c>
       <c r="B12" s="16" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>1</v>
@@ -2555,13 +2635,13 @@
         <v/>
       </c>
       <c r="B13" s="16" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>1</v>
@@ -2577,13 +2657,13 @@
         <v/>
       </c>
       <c r="B14" s="16" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>1</v>
@@ -2599,13 +2679,13 @@
         <v/>
       </c>
       <c r="B15" s="16" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>1</v>
@@ -2621,13 +2701,13 @@
         <v/>
       </c>
       <c r="B16" s="16" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
@@ -2643,13 +2723,13 @@
         <v/>
       </c>
       <c r="B17" s="16" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1</v>
@@ -2665,19 +2745,19 @@
         <v/>
       </c>
       <c r="B18" s="16" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -2687,13 +2767,13 @@
         <v/>
       </c>
       <c r="B19" s="16" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>1</v>
@@ -2709,19 +2789,19 @@
         <v/>
       </c>
       <c r="B20" s="16" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -2731,13 +2811,13 @@
         <v/>
       </c>
       <c r="B21" s="16" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>1</v>
@@ -2753,13 +2833,13 @@
         <v/>
       </c>
       <c r="B22" s="16" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>1</v>
@@ -2775,13 +2855,13 @@
         <v/>
       </c>
       <c r="B23" s="16" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>1</v>
@@ -2797,13 +2877,13 @@
         <v/>
       </c>
       <c r="B24" s="16" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>1</v>
@@ -2819,13 +2899,13 @@
         <v/>
       </c>
       <c r="B25" s="16" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>1</v>
@@ -2841,13 +2921,13 @@
         <v/>
       </c>
       <c r="B26" s="16" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>1</v>
@@ -2863,13 +2943,13 @@
         <v/>
       </c>
       <c r="B27" s="16" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>1</v>
@@ -2885,13 +2965,13 @@
         <v/>
       </c>
       <c r="B28" s="16" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>1</v>
@@ -2907,13 +2987,13 @@
         <v/>
       </c>
       <c r="B29" s="16" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>1</v>
@@ -2929,13 +3009,13 @@
         <v/>
       </c>
       <c r="B30" s="16" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>1</v>
@@ -2951,13 +3031,13 @@
         <v/>
       </c>
       <c r="B31" s="16" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>1</v>
@@ -2973,13 +3053,13 @@
         <v/>
       </c>
       <c r="B32" s="16" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>1</v>
@@ -2995,13 +3075,13 @@
         <v/>
       </c>
       <c r="B33" s="16" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>1</v>
@@ -3017,13 +3097,13 @@
         <v/>
       </c>
       <c r="B34" s="16" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>1</v>
@@ -3039,13 +3119,13 @@
         <v/>
       </c>
       <c r="B35" s="16" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>1</v>
@@ -3061,13 +3141,13 @@
         <v/>
       </c>
       <c r="B36" s="16" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>1</v>
@@ -3083,13 +3163,13 @@
         <v/>
       </c>
       <c r="B37" s="16" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>1</v>
@@ -3105,13 +3185,13 @@
         <v/>
       </c>
       <c r="B38" s="16" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>1</v>
@@ -3127,13 +3207,13 @@
         <v/>
       </c>
       <c r="B39" s="16" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>1</v>
@@ -3149,13 +3229,13 @@
         <v/>
       </c>
       <c r="B40" s="16" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>1</v>
@@ -3171,13 +3251,13 @@
         <v/>
       </c>
       <c r="B41" s="16" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>1</v>
@@ -3193,13 +3273,13 @@
         <v/>
       </c>
       <c r="B42" s="16" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>1</v>
@@ -3215,13 +3295,13 @@
         <v/>
       </c>
       <c r="B43" s="16" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>1</v>
@@ -3237,13 +3317,13 @@
         <v/>
       </c>
       <c r="B44" s="16" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>1</v>
@@ -3259,13 +3339,13 @@
         <v/>
       </c>
       <c r="B45" s="16" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>1</v>
@@ -3281,13 +3361,13 @@
         <v/>
       </c>
       <c r="B46" s="16" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>1</v>
@@ -3303,13 +3383,13 @@
         <v/>
       </c>
       <c r="B47" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>1</v>
@@ -3325,13 +3405,13 @@
         <v/>
       </c>
       <c r="B48" s="16" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>1</v>
@@ -3347,13 +3427,13 @@
         <v/>
       </c>
       <c r="B49" s="16" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>1</v>
@@ -3369,13 +3449,13 @@
         <v/>
       </c>
       <c r="B50" s="16" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>1</v>
@@ -3391,13 +3471,13 @@
         <v/>
       </c>
       <c r="B51" s="16" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>1</v>
@@ -3413,13 +3493,13 @@
         <v/>
       </c>
       <c r="B52" s="16" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>1</v>
@@ -3435,13 +3515,13 @@
         <v/>
       </c>
       <c r="B53" s="16" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>1</v>
@@ -3457,13 +3537,13 @@
         <v/>
       </c>
       <c r="B54" s="16" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>1</v>
@@ -3479,13 +3559,13 @@
         <v/>
       </c>
       <c r="B55" s="16" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>1</v>
@@ -3501,13 +3581,13 @@
         <v/>
       </c>
       <c r="B56" s="16" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>1</v>
@@ -3523,13 +3603,13 @@
         <v/>
       </c>
       <c r="B57" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>1</v>
@@ -3545,13 +3625,13 @@
         <v/>
       </c>
       <c r="B58" s="16" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>1</v>
@@ -3567,13 +3647,13 @@
         <v/>
       </c>
       <c r="B59" s="16" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>1</v>
@@ -3589,13 +3669,13 @@
         <v/>
       </c>
       <c r="B60" s="16" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>1</v>
@@ -3611,13 +3691,13 @@
         <v/>
       </c>
       <c r="B61" s="16" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>1</v>
@@ -3633,13 +3713,13 @@
         <v/>
       </c>
       <c r="B62" s="16" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>1</v>
@@ -3655,13 +3735,13 @@
         <v/>
       </c>
       <c r="B63" s="16" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>1</v>
@@ -3677,13 +3757,13 @@
         <v/>
       </c>
       <c r="B64" s="16" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>1</v>
@@ -3699,13 +3779,13 @@
         <v/>
       </c>
       <c r="B65" s="16" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>1</v>
@@ -3721,13 +3801,13 @@
         <v/>
       </c>
       <c r="B66" s="16" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>1</v>
@@ -3743,19 +3823,19 @@
         <v/>
       </c>
       <c r="B67" s="16" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>180</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -3765,19 +3845,19 @@
         <v/>
       </c>
       <c r="B68" s="16" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -3787,19 +3867,19 @@
         <v/>
       </c>
       <c r="B69" s="16" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -3809,13 +3889,13 @@
         <v/>
       </c>
       <c r="B70" s="16" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>1</v>
@@ -3836,7 +3916,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B7FD0CC-5EF0-B345-B974-77575C95892D}">
           <x14:formula1>
-            <xm:f>Lists!$C$2:$C$298</xm:f>
+            <xm:f>Lists!$C$2:$C$294</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -3869,13 +3949,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3884,13 +3964,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3899,13 +3979,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,13 +3994,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,13 +4009,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3944,13 +4024,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3959,13 +4039,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3974,13 +4054,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3989,13 +4069,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4004,13 +4084,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4019,13 +4099,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4034,13 +4114,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4049,13 +4129,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4064,13 +4144,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4079,13 +4159,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4094,13 +4174,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,13 +4189,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,13 +4204,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4139,13 +4219,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,13 +4234,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4169,13 +4249,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" t="s">
         <v>426</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D21" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4184,13 +4264,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,13 +4279,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,13 +4294,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D24" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4229,13 +4309,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4244,13 +4324,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4259,13 +4339,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4274,13 +4354,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,13 +4369,13 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4304,13 +4384,13 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,13 +4399,13 @@
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4334,13 +4414,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4349,13 +4429,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4364,13 +4444,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D34" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4379,13 +4459,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4394,13 +4474,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,13 +4489,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D37" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4424,13 +4504,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D38" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,13 +4519,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4454,13 +4534,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4469,13 +4549,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4484,13 +4564,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4499,13 +4579,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4514,13 +4594,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4532,10 +4612,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,13 +4624,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D46" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,13 +4639,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4574,13 +4654,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D48" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4589,13 +4669,13 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D49" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4604,13 +4684,13 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D50" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,13 +4699,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D51" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,13 +4714,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4649,13 +4729,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4664,13 +4744,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4679,13 +4759,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4694,13 +4774,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4709,13 +4789,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D57" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4724,13 +4804,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D58" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,13 +4819,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D59" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4754,13 +4834,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D60" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4769,13 +4849,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D61" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4784,13 +4864,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D62" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4799,13 +4879,13 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4814,13 +4894,13 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,13 +4909,13 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4844,13 +4924,13 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4859,13 +4939,13 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D67" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4874,13 +4954,13 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D68" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4889,13 +4969,13 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D69" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,13 +4984,13 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4919,13 +4999,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D71" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4934,13 +5014,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D72" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,13 +5029,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D73" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,13 +5044,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D74" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,13 +5059,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4994,13 +5074,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5009,13 +5089,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5024,13 +5104,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D78" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,13 +5119,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D79" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5054,13 +5134,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D80" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,13 +5149,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D81" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5084,13 +5164,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D82" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5099,13 +5179,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D83" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5114,13 +5194,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,13 +5209,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D85" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5144,13 +5224,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D86" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,13 +5239,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D87" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,13 +5254,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5189,13 +5269,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D89" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5204,13 +5284,13 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5219,13 +5299,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D91" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,13 +5314,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D92" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,13 +5329,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5264,13 +5344,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D94" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5279,13 +5359,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D95" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5294,13 +5374,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D96" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5309,13 +5389,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D97" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5324,13 +5404,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D98" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5339,13 +5419,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D99" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5354,13 +5434,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D100" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,13 +5449,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D101" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5384,13 +5464,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D102" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5399,13 +5479,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5414,13 +5494,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D104" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5429,13 +5509,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D105" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,13 +5524,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D106" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,13 +5539,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D107" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,13 +5554,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D108" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5489,13 +5569,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D109" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5504,13 +5584,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D110" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5519,13 +5599,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D111" t="s">
         <v>442</v>
-      </c>
-      <c r="D111" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5534,13 +5614,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" t="s">
         <v>442</v>
-      </c>
-      <c r="D112" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5549,13 +5629,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D113" t="s">
         <v>442</v>
-      </c>
-      <c r="D113" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5564,13 +5644,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" t="s">
         <v>442</v>
-      </c>
-      <c r="D114" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,13 +5659,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D115" t="s">
         <v>442</v>
-      </c>
-      <c r="D115" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5594,13 +5674,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" t="s">
         <v>442</v>
-      </c>
-      <c r="D116" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5609,13 +5689,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D117" t="s">
         <v>442</v>
-      </c>
-      <c r="D117" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5624,13 +5704,13 @@
         <v/>
       </c>
       <c r="B118" s="10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D118" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5639,13 +5719,13 @@
         <v/>
       </c>
       <c r="B119" s="10" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5654,13 +5734,13 @@
         <v/>
       </c>
       <c r="B120" s="10" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D120" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5669,13 +5749,13 @@
         <v/>
       </c>
       <c r="B121" s="10" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D121" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5684,13 +5764,13 @@
         <v/>
       </c>
       <c r="B122" s="10" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D122" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5699,13 +5779,13 @@
         <v/>
       </c>
       <c r="B123" s="10" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5714,13 +5794,13 @@
         <v/>
       </c>
       <c r="B124" s="10" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D124" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5729,13 +5809,13 @@
         <v/>
       </c>
       <c r="B125" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D125" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5744,13 +5824,13 @@
         <v/>
       </c>
       <c r="B126" s="10" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5759,13 +5839,13 @@
         <v/>
       </c>
       <c r="B127" s="10" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D127" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5774,13 +5854,13 @@
         <v/>
       </c>
       <c r="B128" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5789,13 +5869,13 @@
         <v/>
       </c>
       <c r="B129" s="10" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5804,13 +5884,13 @@
         <v/>
       </c>
       <c r="B130" s="10" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D130" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5819,13 +5899,13 @@
         <v/>
       </c>
       <c r="B131" s="10" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D131" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5834,13 +5914,13 @@
         <v/>
       </c>
       <c r="B132" s="10" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D132" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5849,13 +5929,13 @@
         <v/>
       </c>
       <c r="B133" s="10" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D133" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5864,13 +5944,13 @@
         <v/>
       </c>
       <c r="B134" s="10" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D134" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5879,13 +5959,13 @@
         <v/>
       </c>
       <c r="B135" s="10" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D135" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5894,13 +5974,13 @@
         <v/>
       </c>
       <c r="B136" s="10" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5918,1252 +5998,2442 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:XFD147"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192:E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>absorbed dose</v>
+      </c>
+      <c r="M2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>activity [of radioactivity]</v>
+      </c>
+      <c r="M3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>amount of substance</v>
+      </c>
+      <c r="M4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>amount of substance per amount of substance</v>
+      </c>
+      <c r="M5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>amount of substance per area</v>
+      </c>
+      <c r="M6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>amount of substance per time</v>
+      </c>
+      <c r="M8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(amount of substance per time) per area</v>
+      </c>
+      <c r="M9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>amount of substance per volume</v>
+      </c>
+      <c r="M10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>angle per length</v>
+      </c>
+      <c r="M11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>angle per volume</v>
+      </c>
+      <c r="M12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>angular acceleration</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>angular velocity</v>
+      </c>
+      <c r="M14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>API gamma ray</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>API gravity</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>176</v>
       </c>
       <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>API neutron</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" t="s">
+      <c r="D18" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area per amount of substance</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>182</v>
+      <c r="D20" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area per area</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>184</v>
       </c>
       <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area per mass</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area per time</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>area per volume</v>
+      </c>
+      <c r="M24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>attenuation per frequency interval</v>
+      </c>
+      <c r="M25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>187</v>
+      <c r="D26" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>capacitance</v>
+      </c>
+      <c r="M26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>data transfer speed</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>diffusion coefficient</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="s">
+        <v>469</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>digital storage</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>dimensionless</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>dipole moment</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>dose equivalent</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>dynamic viscosity</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric charge</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric charge per area</v>
+      </c>
+      <c r="M36" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric charge per mass</v>
+      </c>
+      <c r="M37" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric charge per volume</v>
+      </c>
+      <c r="M38" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric conductance</v>
+      </c>
+      <c r="M39" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric conductivity</v>
+      </c>
+      <c r="M40" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric current</v>
+      </c>
+      <c r="M41" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric current density</v>
+      </c>
+      <c r="M42" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric field strength</v>
+      </c>
+      <c r="M43" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric potential difference</v>
+      </c>
+      <c r="M44" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric resistance</v>
+      </c>
+      <c r="M45" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electric resistance per length</v>
+      </c>
+      <c r="M46" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electrical resistivity</v>
+      </c>
+      <c r="M47" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>electromagnetic moment</v>
+      </c>
+      <c r="M48" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy</v>
+      </c>
+      <c r="M49" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy length per area</v>
+      </c>
+      <c r="M50" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy length per time area temperature</v>
+      </c>
+      <c r="M51" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy per area</v>
+      </c>
+      <c r="M52" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy per length</v>
+      </c>
+      <c r="M53" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy per mass</v>
+      </c>
+      <c r="M54" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>455</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(energy per mass) per time</v>
+      </c>
+      <c r="M55" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>energy per volume</v>
+      </c>
+      <c r="M56" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force</v>
+      </c>
+      <c r="M57" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force area</v>
+      </c>
+      <c r="M58" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force length per length</v>
+      </c>
+      <c r="M59" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" t="s">
+        <v>449</v>
+      </c>
+      <c r="M60" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force per force</v>
+      </c>
+      <c r="M61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force per length</v>
+      </c>
+      <c r="M62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>force per volume</v>
+      </c>
+      <c r="M63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>frequency</v>
+      </c>
+      <c r="M64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>frequency interval</v>
+      </c>
+      <c r="M65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>463</v>
-      </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="D66" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>heat capacity</v>
+      </c>
+      <c r="M67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>heat flow rate</v>
+      </c>
+      <c r="M68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>heat transfer coefficient</v>
+      </c>
+      <c r="M69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>illuminance</v>
+      </c>
+      <c r="M70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>inductance</v>
+      </c>
+      <c r="M71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>isothermal compressibility</v>
+      </c>
+      <c r="M72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>kinematic viscosity</v>
+      </c>
+      <c r="M73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length</v>
+      </c>
+      <c r="M74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per length</v>
+      </c>
+      <c r="M75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per mass</v>
+      </c>
+      <c r="M76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per pressure</v>
+      </c>
+      <c r="M77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per temperature</v>
+      </c>
+      <c r="M78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per time</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>length per volume</v>
+      </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>light exposure</v>
+      </c>
+      <c r="M81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>linear acceleration</v>
+      </c>
+      <c r="M82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>linear thermal expansion</v>
+      </c>
+      <c r="M83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>logarithmic power ratio</v>
+      </c>
+      <c r="M84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>logarithmic power ratio per length</v>
+      </c>
+      <c r="M85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>luminance</v>
+      </c>
+      <c r="M86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>luminous efficacy</v>
+      </c>
+      <c r="M87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>luminous flux</v>
+      </c>
+      <c r="M88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>luminous intensity</v>
+      </c>
+      <c r="M89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic dipole moment</v>
+      </c>
+      <c r="M90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic field strength</v>
+      </c>
+      <c r="M91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="7"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic flux</v>
+      </c>
+      <c r="M92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic flux density</v>
+      </c>
+      <c r="M93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic flux density per length</v>
+      </c>
+      <c r="M94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic permeability</v>
+      </c>
+      <c r="M95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>magnetic vector potential</v>
+      </c>
+      <c r="M96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass</v>
+      </c>
+      <c r="M97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass length</v>
+      </c>
+      <c r="M98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>101</v>
       </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per area</v>
+      </c>
+      <c r="M99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per energy</v>
+      </c>
+      <c r="M100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per length</v>
+      </c>
+      <c r="M101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per mass</v>
+      </c>
+      <c r="M102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per time</v>
+      </c>
+      <c r="M103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="D104" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(mass per time) per area</v>
+      </c>
+      <c r="M104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="D105" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(mass per time) per length</v>
+      </c>
+      <c r="M105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mass per volume</v>
+      </c>
+      <c r="M106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="D107" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(mass per volume) per length</v>
+      </c>
+      <c r="M107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>207</v>
-      </c>
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="D108" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" t="s">
+        <v>469</v>
+      </c>
+      <c r="M108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="D109" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" t="s">
+        <v>469</v>
+      </c>
+      <c r="M109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>106</v>
       </c>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>mobility</v>
+      </c>
+      <c r="M110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>molar energy</v>
+      </c>
+      <c r="M111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>molar heat capacity</v>
+      </c>
+      <c r="M112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>109</v>
       </c>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>molar volume</v>
+      </c>
+      <c r="M113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>110</v>
       </c>
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>molecular weight</v>
+      </c>
+      <c r="M114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>111</v>
       </c>
-      <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>moment of force</v>
+      </c>
+      <c r="M115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>112</v>
       </c>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>moment of inertia</v>
+      </c>
+      <c r="M116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>momentum</v>
+      </c>
+      <c r="M117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>114</v>
       </c>
-      <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>normalized power</v>
+      </c>
+      <c r="M118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>115</v>
       </c>
-      <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>permeability length</v>
+      </c>
+      <c r="M119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>116</v>
       </c>
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D120" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>permeability rock</v>
+      </c>
+      <c r="M120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D121" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>permittivity</v>
+      </c>
+      <c r="M121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D122" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>plane angle</v>
+      </c>
+      <c r="M122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>potential difference per power drop</v>
+      </c>
+      <c r="M123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>119</v>
       </c>
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>power</v>
+      </c>
+      <c r="M124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>120</v>
       </c>
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>power per area</v>
+      </c>
+      <c r="M125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D126" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>power per power</v>
+      </c>
+      <c r="M126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="7"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D127" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>power per volume</v>
+      </c>
+      <c r="M127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="7"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure</v>
+      </c>
+      <c r="M128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>197</v>
       </c>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D129" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E129" t="s">
+        <v>469</v>
+      </c>
+      <c r="M129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>123</v>
       </c>
-      <c r="D130" s="7"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D130" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure per time</v>
+      </c>
+      <c r="M130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>124</v>
       </c>
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D131" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure per volume</v>
+      </c>
+      <c r="M131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>125</v>
       </c>
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D132" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure squared</v>
+      </c>
+      <c r="M132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="D133" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure squared per (force time per area)</v>
+      </c>
+      <c r="M133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>pressure time per volume</v>
+      </c>
+      <c r="M134" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D135" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>quantity of light</v>
+      </c>
+      <c r="M135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>128</v>
       </c>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>radiance</v>
+      </c>
+      <c r="M136" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>radiant intensity</v>
+      </c>
+      <c r="M137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>130</v>
       </c>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D138" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal area</v>
+      </c>
+      <c r="M138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>131</v>
       </c>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D139" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal electric potential difference</v>
+      </c>
+      <c r="M139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>132</v>
       </c>
-      <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D140" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal force</v>
+      </c>
+      <c r="M140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>133</v>
       </c>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D141" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal length</v>
+      </c>
+      <c r="M141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>134</v>
       </c>
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal mass</v>
+      </c>
+      <c r="M142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>210</v>
-      </c>
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="D143" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal (mass time)</v>
+      </c>
+      <c r="M143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal pressure</v>
+      </c>
+      <c r="M144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal time</v>
+      </c>
+      <c r="M145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>464</v>
-      </c>
-      <c r="D146" s="7"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D146" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reciprocal volume</v>
+      </c>
+      <c r="M146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="7"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="D147" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E147" t="s">
+        <v>448</v>
+      </c>
+      <c r="M147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>reluctance</v>
+      </c>
+      <c r="M148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="7"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>second moment of area</v>
+      </c>
+      <c r="M149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>140</v>
       </c>
-      <c r="D150" s="7"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D150" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>signaling event per time</v>
+      </c>
+      <c r="M150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>141</v>
       </c>
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>solid angle</v>
+      </c>
+      <c r="M151" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>142</v>
       </c>
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>specific heat capacity</v>
+      </c>
+      <c r="M152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>143</v>
       </c>
-      <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>temperature interval</v>
+      </c>
+      <c r="M153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>144</v>
       </c>
-      <c r="D154" s="7"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D154" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>temperature interval per length</v>
+      </c>
+      <c r="M154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>145</v>
       </c>
-      <c r="D155" s="7"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D155" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>temperature interval per pressure</v>
+      </c>
+      <c r="M155" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D156" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>temperature interval per time</v>
+      </c>
+      <c r="M156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>147</v>
       </c>
-      <c r="D157" s="7"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D157" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermal conductance</v>
+      </c>
+      <c r="M157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="7"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D158" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermal conductivity</v>
+      </c>
+      <c r="M158" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>149</v>
       </c>
-      <c r="D159" s="7"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D159" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermal diffusivity</v>
+      </c>
+      <c r="M159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="7"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D160" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermal insulance</v>
+      </c>
+      <c r="M160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>151</v>
       </c>
-      <c r="D161" s="7"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D161" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermal resistance</v>
+      </c>
+      <c r="M161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="7"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D162" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>thermodynamic temperature</v>
+      </c>
+      <c r="M162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>211</v>
-      </c>
-      <c r="D163" s="7"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D163" s="7" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E163" t="s">
+        <v>469</v>
+      </c>
+      <c r="M163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="7"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D164" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>time</v>
+      </c>
+      <c r="M164" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>21</v>
       </c>
-      <c r="D165" s="7"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>time per length</v>
+      </c>
+      <c r="M165" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>152</v>
       </c>
-      <c r="D166" s="7"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D166" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>time per mass</v>
+      </c>
+      <c r="M166" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>153</v>
       </c>
-      <c r="D167" s="7"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D167" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>time per time</v>
+      </c>
+      <c r="M167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>154</v>
       </c>
-      <c r="D168" s="7"/>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D168" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>time per volume</v>
+      </c>
+      <c r="M168" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>220</v>
-      </c>
-      <c r="D169" s="7"/>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="D169" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume</v>
+      </c>
+      <c r="M169" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>212</v>
-      </c>
-      <c r="D170" s="7"/>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D170" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume flow rate per volume flow rate</v>
+      </c>
+      <c r="M170" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>155</v>
-      </c>
-      <c r="D171" s="7"/>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="D171" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per area</v>
+      </c>
+      <c r="M171" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>156</v>
-      </c>
-      <c r="D172" s="7"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D172" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per length</v>
+      </c>
+      <c r="M172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>157</v>
-      </c>
-      <c r="D173" s="7"/>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="D173" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per mass</v>
+      </c>
+      <c r="M173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>158</v>
-      </c>
-      <c r="D174" s="7"/>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="D174" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per pressure</v>
+      </c>
+      <c r="M174" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>159</v>
-      </c>
-      <c r="D175" s="7"/>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="D175" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per rotation</v>
+      </c>
+      <c r="M175" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>160</v>
-      </c>
-      <c r="D176" s="7"/>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="D176" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per time</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>161</v>
-      </c>
-      <c r="D177" s="7"/>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="D177" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) length</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>162</v>
-      </c>
-      <c r="D178" s="7"/>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="D178" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per area</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>213</v>
-      </c>
-      <c r="D179" s="7"/>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="D179" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per length</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>214</v>
-      </c>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="D180" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per pressure</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>215</v>
-      </c>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="D181" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per (pressure length)</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>216</v>
-      </c>
-      <c r="D182" s="7"/>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="D182" s="7" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per time</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>217</v>
-      </c>
-      <c r="D183" s="7"/>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="D183" s="8" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>(volume per time) per volume</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>218</v>
-      </c>
-      <c r="D184" s="7"/>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D184" s="8" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volume per volume</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>219</v>
-      </c>
-      <c r="D185" s="8"/>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="D185" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volumetric heat transfer coefficient</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="8"/>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="D186" t="str">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>volumetric thermal expansion</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="D187" s="23" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E187" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>164</v>
+        <v>474</v>
+      </c>
+      <c r="D188" s="23" t="e">
+        <f>VLOOKUP(Table6[[#This Row],[QuantityClass]],M$1:M$175,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E188" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E192" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E193" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E194" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E195" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E196" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E197" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E198" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E199" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E200" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E201" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E202" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E203" s="20" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F175">
-    <sortCondition ref="F2:F175"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E192:E203">
+    <sortCondition ref="E192:E203"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
